--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9326.624076067901</v>
+        <v>9509.387493072481</v>
       </c>
       <c r="AB2" t="n">
-        <v>12761.09852249157</v>
+        <v>13011.16349259015</v>
       </c>
       <c r="AC2" t="n">
-        <v>11543.19718981875</v>
+        <v>11769.39631013951</v>
       </c>
       <c r="AD2" t="n">
-        <v>9326624.0760679</v>
+        <v>9509387.493072482</v>
       </c>
       <c r="AE2" t="n">
-        <v>12761098.52249157</v>
+        <v>13011163.49259015</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216827127592879e-07</v>
+        <v>9.652496026663947e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.128125</v>
       </c>
       <c r="AH2" t="n">
-        <v>11543197.18981875</v>
+        <v>11769396.31013951</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3055.301637481371</v>
+        <v>3152.695850190204</v>
       </c>
       <c r="AB3" t="n">
-        <v>4180.398490797467</v>
+        <v>4313.657549355117</v>
       </c>
       <c r="AC3" t="n">
-        <v>3781.427126061731</v>
+        <v>3901.968127100898</v>
       </c>
       <c r="AD3" t="n">
-        <v>3055301.63748137</v>
+        <v>3152695.850190204</v>
       </c>
       <c r="AE3" t="n">
-        <v>4180398.490797467</v>
+        <v>4313657.549355118</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.848657700889133e-07</v>
+        <v>1.822259526734013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.43020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3781427.126061731</v>
+        <v>3901968.127100897</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2314.308164038494</v>
+        <v>2387.481857229114</v>
       </c>
       <c r="AB4" t="n">
-        <v>3166.538530107984</v>
+        <v>3266.658005326906</v>
       </c>
       <c r="AC4" t="n">
-        <v>2864.328537059098</v>
+        <v>2954.892750081688</v>
       </c>
       <c r="AD4" t="n">
-        <v>2314308.164038494</v>
+        <v>2387481.857229114</v>
       </c>
       <c r="AE4" t="n">
-        <v>3166538.530107984</v>
+        <v>3266658.005326906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154967012560202e-06</v>
+        <v>2.136991360265617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2864328.537059098</v>
+        <v>2954892.750081688</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2004.359451426287</v>
+        <v>2077.447803762336</v>
       </c>
       <c r="AB5" t="n">
-        <v>2742.453027539642</v>
+        <v>2842.455735636359</v>
       </c>
       <c r="AC5" t="n">
-        <v>2480.717159648257</v>
+        <v>2571.175749638906</v>
       </c>
       <c r="AD5" t="n">
-        <v>2004359.451426287</v>
+        <v>2077447.803762336</v>
       </c>
       <c r="AE5" t="n">
-        <v>2742453.027539642</v>
+        <v>2842455.735636359</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245707126468557e-06</v>
+        <v>2.304884328067211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.19895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2480717.159648257</v>
+        <v>2571175.749638906</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1809.773876998973</v>
+        <v>1882.947480681043</v>
       </c>
       <c r="AB6" t="n">
-        <v>2476.212460098512</v>
+        <v>2576.331812847878</v>
       </c>
       <c r="AC6" t="n">
-        <v>2239.886218292724</v>
+        <v>2330.450320534086</v>
       </c>
       <c r="AD6" t="n">
-        <v>1809773.876998974</v>
+        <v>1882947.480681043</v>
       </c>
       <c r="AE6" t="n">
-        <v>2476212.460098512</v>
+        <v>2576331.812847878</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.303477359760693e-06</v>
+        <v>2.411774384738322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.65833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2239886.218292724</v>
+        <v>2330450.320534086</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1680.495667999062</v>
+        <v>1753.498679480539</v>
       </c>
       <c r="AB7" t="n">
-        <v>2299.328311192774</v>
+        <v>2399.214252167295</v>
       </c>
       <c r="AC7" t="n">
-        <v>2079.883644300089</v>
+        <v>2170.236611258799</v>
       </c>
       <c r="AD7" t="n">
-        <v>1680495.667999062</v>
+        <v>1753498.679480539</v>
       </c>
       <c r="AE7" t="n">
-        <v>2299328.311192774</v>
+        <v>2399214.252167295</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.341990848622117e-06</v>
+        <v>2.483034422519063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.32395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2079883.644300089</v>
+        <v>2170236.611258799</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1566.957255846389</v>
+        <v>1627.93534842333</v>
       </c>
       <c r="AB8" t="n">
-        <v>2143.980046724257</v>
+        <v>2227.412963151611</v>
       </c>
       <c r="AC8" t="n">
-        <v>1939.361600159788</v>
+        <v>2014.831796142149</v>
       </c>
       <c r="AD8" t="n">
-        <v>1566957.255846389</v>
+        <v>1627935.34842333</v>
       </c>
       <c r="AE8" t="n">
-        <v>2143980.046724257</v>
+        <v>2227412.963151611</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372334809543239e-06</v>
+        <v>2.539178694709948e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1939361.600159788</v>
+        <v>2014831.796142149</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1535.48337911307</v>
+        <v>1596.461471690011</v>
       </c>
       <c r="AB9" t="n">
-        <v>2100.916100048286</v>
+        <v>2184.349016475641</v>
       </c>
       <c r="AC9" t="n">
-        <v>1900.407616113943</v>
+        <v>1975.877812096304</v>
       </c>
       <c r="AD9" t="n">
-        <v>1535483.37911307</v>
+        <v>1596461.471690011</v>
       </c>
       <c r="AE9" t="n">
-        <v>2100916.100048286</v>
+        <v>2184349.016475641</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>2.553754611528737e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.01041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1900407.616113943</v>
+        <v>1975877.812096304</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1542.567561593218</v>
+        <v>1603.54565417016</v>
       </c>
       <c r="AB10" t="n">
-        <v>2110.608991049699</v>
+        <v>2194.041907477053</v>
       </c>
       <c r="AC10" t="n">
-        <v>1909.175431202239</v>
+        <v>1984.6456271846</v>
       </c>
       <c r="AD10" t="n">
-        <v>1542567.561593218</v>
+        <v>1603545.65417016</v>
       </c>
       <c r="AE10" t="n">
-        <v>2110608.991049699</v>
+        <v>2194041.907477053</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>2.553484687143203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.01145833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1909175.431202239</v>
+        <v>1984645.6271846</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5537.84519083735</v>
+        <v>5678.924395575385</v>
       </c>
       <c r="AB2" t="n">
-        <v>7577.124102591205</v>
+        <v>7770.154894489044</v>
       </c>
       <c r="AC2" t="n">
-        <v>6853.974012800084</v>
+        <v>7028.582216839604</v>
       </c>
       <c r="AD2" t="n">
-        <v>5537845.19083735</v>
+        <v>5678924.395575386</v>
       </c>
       <c r="AE2" t="n">
-        <v>7577124.102591205</v>
+        <v>7770154.894489043</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.886269665988212e-07</v>
+        <v>1.312629275788867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.82708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6853974.012800084</v>
+        <v>7028582.216839604</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2359.727565338325</v>
+        <v>2441.988298921325</v>
       </c>
       <c r="AB3" t="n">
-        <v>3228.683358728984</v>
+        <v>3341.236123504688</v>
       </c>
       <c r="AC3" t="n">
-        <v>2920.542350457322</v>
+        <v>3022.353237331627</v>
       </c>
       <c r="AD3" t="n">
-        <v>2359727.565338325</v>
+        <v>2441988.298921325</v>
       </c>
       <c r="AE3" t="n">
-        <v>3228683.358728984</v>
+        <v>3341236.123504688</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.115264800167716e-06</v>
+        <v>2.12586683061138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.09583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2920542.350457322</v>
+        <v>3022353.237331627</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1844.709966035642</v>
+        <v>1915.206987485924</v>
       </c>
       <c r="AB4" t="n">
-        <v>2524.013558389952</v>
+        <v>2620.470693247315</v>
       </c>
       <c r="AC4" t="n">
-        <v>2283.125246852493</v>
+        <v>2370.376648137508</v>
       </c>
       <c r="AD4" t="n">
-        <v>1844709.966035642</v>
+        <v>1915206.987485925</v>
       </c>
       <c r="AE4" t="n">
-        <v>2524013.558389952</v>
+        <v>2620470.693247315</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269047591963508e-06</v>
+        <v>2.419000565441285e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.38854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2283125.246852493</v>
+        <v>2370376.648137508</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1596.023225156854</v>
+        <v>1666.605497953158</v>
       </c>
       <c r="AB5" t="n">
-        <v>2183.749388234902</v>
+        <v>2280.323167744914</v>
       </c>
       <c r="AC5" t="n">
-        <v>1975.335411533279</v>
+        <v>2062.692325069006</v>
       </c>
       <c r="AD5" t="n">
-        <v>1596023.225156854</v>
+        <v>1666605.497953158</v>
       </c>
       <c r="AE5" t="n">
-        <v>2183749.388234902</v>
+        <v>2280323.167744915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352352892327863e-06</v>
+        <v>2.577793324642568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1975335.411533279</v>
+        <v>2062692.325069006</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1437.05982796563</v>
+        <v>1495.878478137767</v>
       </c>
       <c r="AB6" t="n">
-        <v>1966.248655227735</v>
+        <v>2046.726927288961</v>
       </c>
       <c r="AC6" t="n">
-        <v>1778.592643220119</v>
+        <v>1851.390181947786</v>
       </c>
       <c r="AD6" t="n">
-        <v>1437059.82796563</v>
+        <v>1495878.478137767</v>
       </c>
       <c r="AE6" t="n">
-        <v>1966248.655227735</v>
+        <v>2046726.927288961</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.403513212660319e-06</v>
+        <v>2.675312790891182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.20104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1778592.643220119</v>
+        <v>1851390.181947786</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1409.461048334662</v>
+        <v>1468.279698506799</v>
       </c>
       <c r="AB7" t="n">
-        <v>1928.48678736442</v>
+        <v>2008.965059425645</v>
       </c>
       <c r="AC7" t="n">
-        <v>1744.434715026564</v>
+        <v>1817.23225375423</v>
       </c>
       <c r="AD7" t="n">
-        <v>1409461.048334662</v>
+        <v>1468279.698506799</v>
       </c>
       <c r="AE7" t="n">
-        <v>1928486.78736442</v>
+        <v>2008965.059425645</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.412115390415334e-06</v>
+        <v>2.691709869286967e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.13229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1744434.715026564</v>
+        <v>1817232.25375423</v>
       </c>
     </row>
   </sheetData>
@@ -5074,28 +5074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1684.588670054325</v>
+        <v>1757.747516146641</v>
       </c>
       <c r="AB2" t="n">
-        <v>2304.928537175293</v>
+        <v>2405.0276979393</v>
       </c>
       <c r="AC2" t="n">
-        <v>2084.949392574802</v>
+        <v>2175.495229925546</v>
       </c>
       <c r="AD2" t="n">
-        <v>1684588.670054325</v>
+        <v>1757747.516146641</v>
       </c>
       <c r="AE2" t="n">
-        <v>2304928.537175293</v>
+        <v>2405027.6979393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.220897103754856e-06</v>
+        <v>2.600191318643349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2084949.392574801</v>
+        <v>2175495.229925546</v>
       </c>
     </row>
     <row r="3">
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1126.829315775827</v>
+        <v>1199.90273150502</v>
       </c>
       <c r="AB3" t="n">
-        <v>1541.777582045387</v>
+        <v>1641.759853217649</v>
       </c>
       <c r="AC3" t="n">
-        <v>1394.632493513402</v>
+        <v>1485.072597050981</v>
       </c>
       <c r="AD3" t="n">
-        <v>1126829.315775827</v>
+        <v>1199902.73150502</v>
       </c>
       <c r="AE3" t="n">
-        <v>1541777.582045387</v>
+        <v>1641759.853217649</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.465413323706862e-06</v>
+        <v>3.120946876528886e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1394632.493513402</v>
+        <v>1485072.597050981</v>
       </c>
     </row>
     <row r="4">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.040642307467</v>
+        <v>1207.11405803666</v>
       </c>
       <c r="AB4" t="n">
-        <v>1551.64443714725</v>
+        <v>1651.626708319512</v>
       </c>
       <c r="AC4" t="n">
-        <v>1403.557669812561</v>
+        <v>1493.997773350141</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134040.642307467</v>
+        <v>1207114.05803666</v>
       </c>
       <c r="AE4" t="n">
-        <v>1551644.43714725</v>
+        <v>1651626.708319512</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466760520511006e-06</v>
+        <v>3.123816053156355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1403557.669812561</v>
+        <v>1493997.773350141</v>
       </c>
     </row>
   </sheetData>
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2615.652913606529</v>
+        <v>2714.31373716776</v>
       </c>
       <c r="AB2" t="n">
-        <v>3578.851710859072</v>
+        <v>3713.843802263901</v>
       </c>
       <c r="AC2" t="n">
-        <v>3237.291126524471</v>
+        <v>3359.399762188208</v>
       </c>
       <c r="AD2" t="n">
-        <v>2615652.913606529</v>
+        <v>2714313.73716776</v>
       </c>
       <c r="AE2" t="n">
-        <v>3578851.710859072</v>
+        <v>3713843.802263901</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004474424784511e-06</v>
+        <v>2.039430360925129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3237291.126524471</v>
+        <v>3359399.762188208</v>
       </c>
     </row>
     <row r="3">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1452.535462408658</v>
+        <v>1518.28098733984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1987.423101009493</v>
+        <v>2077.379028708189</v>
       </c>
       <c r="AC3" t="n">
-        <v>1797.746229614987</v>
+        <v>1879.116889828058</v>
       </c>
       <c r="AD3" t="n">
-        <v>1452535.462408658</v>
+        <v>1518280.98733984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1987423.101009493</v>
+        <v>2077379.028708189</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361316582105712e-06</v>
+        <v>2.763943311919381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1797746.229614988</v>
+        <v>1879116.889828058</v>
       </c>
     </row>
     <row r="4">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1218.805275996099</v>
+        <v>1284.636052273301</v>
       </c>
       <c r="AB4" t="n">
-        <v>1667.623148511752</v>
+        <v>1757.695720863098</v>
       </c>
       <c r="AC4" t="n">
-        <v>1508.467535741579</v>
+        <v>1589.943708205361</v>
       </c>
       <c r="AD4" t="n">
-        <v>1218805.275996099</v>
+        <v>1284636.052273301</v>
       </c>
       <c r="AE4" t="n">
-        <v>1667623.148511752</v>
+        <v>1757695.720863098</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457333704346541e-06</v>
+        <v>2.958891266227541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1508467.535741579</v>
+        <v>1589943.708205361</v>
       </c>
     </row>
     <row r="5">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1224.809451021765</v>
+        <v>1290.640227298967</v>
       </c>
       <c r="AB5" t="n">
-        <v>1675.838325667375</v>
+        <v>1765.91089801872</v>
       </c>
       <c r="AC5" t="n">
-        <v>1515.898667919542</v>
+        <v>1597.374840383325</v>
       </c>
       <c r="AD5" t="n">
-        <v>1224809.451021765</v>
+        <v>1290640.227298967</v>
       </c>
       <c r="AE5" t="n">
-        <v>1675838.325667375</v>
+        <v>1765910.89801872</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.961180923409013e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.50625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1515898.667919542</v>
+        <v>1597374.840383325</v>
       </c>
     </row>
   </sheetData>
@@ -6198,28 +6198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.694614186266</v>
+        <v>1205.934691410649</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.907474439914</v>
+        <v>1650.013046871821</v>
       </c>
       <c r="AC2" t="n">
-        <v>1405.604726002205</v>
+        <v>1492.53811748623</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135694.614186266</v>
+        <v>1205934.691410649</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553907.474439914</v>
+        <v>1650013.046871821</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411594935561399e-06</v>
+        <v>3.143346203068022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.90729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1405604.726002205</v>
+        <v>1492538.11748623</v>
       </c>
     </row>
     <row r="3">
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1080.863909287638</v>
+        <v>1151.103986512021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1478.885685037632</v>
+        <v>1574.991257469539</v>
       </c>
       <c r="AC3" t="n">
-        <v>1337.742910886735</v>
+        <v>1424.676302370759</v>
       </c>
       <c r="AD3" t="n">
-        <v>1080863.909287638</v>
+        <v>1151103.986512021</v>
       </c>
       <c r="AE3" t="n">
-        <v>1478885.685037632</v>
+        <v>1574991.257469539</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449547618130699e-06</v>
+        <v>3.227859414078524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1337742.910886735</v>
+        <v>1424676.302370759</v>
       </c>
     </row>
   </sheetData>
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6275.85674400406</v>
+        <v>6418.298256589141</v>
       </c>
       <c r="AB2" t="n">
-        <v>8586.904068405798</v>
+        <v>8781.798830000746</v>
       </c>
       <c r="AC2" t="n">
-        <v>7767.381995912377</v>
+        <v>7943.676274997211</v>
       </c>
       <c r="AD2" t="n">
-        <v>6275856.74400406</v>
+        <v>6418298.256589141</v>
       </c>
       <c r="AE2" t="n">
-        <v>8586904.068405798</v>
+        <v>8781798.830000745</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.450511457146112e-07</v>
+        <v>1.219639270720717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.153125</v>
       </c>
       <c r="AH2" t="n">
-        <v>7767381.995912377</v>
+        <v>7943676.274997211</v>
       </c>
     </row>
     <row r="3">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2521.808546083786</v>
+        <v>2604.863907030909</v>
       </c>
       <c r="AB3" t="n">
-        <v>3450.44970709315</v>
+        <v>3564.089716084932</v>
       </c>
       <c r="AC3" t="n">
-        <v>3121.143629784629</v>
+        <v>3223.937995812985</v>
       </c>
       <c r="AD3" t="n">
-        <v>2521808.546083787</v>
+        <v>2604863.907030909</v>
       </c>
       <c r="AE3" t="n">
-        <v>3450449.70709315</v>
+        <v>3564089.716084932</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080419540144297e-06</v>
+        <v>2.042818013375019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.41875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3121143.629784628</v>
+        <v>3223937.995812985</v>
       </c>
     </row>
     <row r="4">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1957.40360702644</v>
+        <v>2040.458878465012</v>
       </c>
       <c r="AB4" t="n">
-        <v>2678.205969686119</v>
+        <v>2791.845856208347</v>
       </c>
       <c r="AC4" t="n">
-        <v>2422.601750824962</v>
+        <v>2525.396006072091</v>
       </c>
       <c r="AD4" t="n">
-        <v>1957403.60702644</v>
+        <v>2040458.878465012</v>
       </c>
       <c r="AE4" t="n">
-        <v>2678205.969686119</v>
+        <v>2791845.856208346</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238504182161534e-06</v>
+        <v>2.341718711068457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2422601.750824962</v>
+        <v>2525396.00607209</v>
       </c>
     </row>
     <row r="5">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1698.782477191881</v>
+        <v>1770.045859157432</v>
       </c>
       <c r="AB5" t="n">
-        <v>2324.349130287473</v>
+        <v>2421.854833411265</v>
       </c>
       <c r="AC5" t="n">
-        <v>2102.516511537329</v>
+        <v>2190.7164072051</v>
       </c>
       <c r="AD5" t="n">
-        <v>1698782.477191881</v>
+        <v>1770045.859157432</v>
       </c>
       <c r="AE5" t="n">
-        <v>2324349.130287473</v>
+        <v>2421854.833411265</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323005433570937e-06</v>
+        <v>2.50149060718652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.775</v>
       </c>
       <c r="AH5" t="n">
-        <v>2102516.511537329</v>
+        <v>2190716.407205101</v>
       </c>
     </row>
     <row r="6">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1530.208800128354</v>
+        <v>1601.301589893313</v>
       </c>
       <c r="AB6" t="n">
-        <v>2093.699188383397</v>
+        <v>2190.971479732342</v>
       </c>
       <c r="AC6" t="n">
-        <v>1893.879476369351</v>
+        <v>1981.868236754471</v>
       </c>
       <c r="AD6" t="n">
-        <v>1530208.800128354</v>
+        <v>1601301.589893313</v>
       </c>
       <c r="AE6" t="n">
-        <v>2093699.188383396</v>
+        <v>2190971.479732342</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377295618104766e-06</v>
+        <v>2.604140515665913e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.31145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1893879.476369351</v>
+        <v>1981868.236754471</v>
       </c>
     </row>
     <row r="7">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1441.655938808437</v>
+        <v>1501.042179954947</v>
       </c>
       <c r="AB7" t="n">
-        <v>1972.537256848964</v>
+        <v>2053.792131921673</v>
       </c>
       <c r="AC7" t="n">
-        <v>1784.281069528726</v>
+        <v>1857.781093366429</v>
       </c>
       <c r="AD7" t="n">
-        <v>1441655.938808437</v>
+        <v>1501042.179954947</v>
       </c>
       <c r="AE7" t="n">
-        <v>1972537.256848964</v>
+        <v>2053792.131921674</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402720773396091e-06</v>
+        <v>2.652213475559843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1784281.069528726</v>
+        <v>1857781.093366429</v>
       </c>
     </row>
     <row r="8">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1444.373086251514</v>
+        <v>1503.759327398024</v>
       </c>
       <c r="AB8" t="n">
-        <v>1976.254977852667</v>
+        <v>2057.509852925376</v>
       </c>
       <c r="AC8" t="n">
-        <v>1787.643976457689</v>
+        <v>1861.144000295393</v>
       </c>
       <c r="AD8" t="n">
-        <v>1444373.086251514</v>
+        <v>1503759.327398024</v>
       </c>
       <c r="AE8" t="n">
-        <v>1976254.977852667</v>
+        <v>2057509.852925376</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403618131818137e-06</v>
+        <v>2.653910168261982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.09895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1787643.976457689</v>
+        <v>1861144.000295392</v>
       </c>
     </row>
     <row r="9">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1448.762827586851</v>
+        <v>1508.149068733361</v>
       </c>
       <c r="AB9" t="n">
-        <v>1982.261215609395</v>
+        <v>2063.516090682104</v>
       </c>
       <c r="AC9" t="n">
-        <v>1793.076987312723</v>
+        <v>1866.577011150426</v>
       </c>
       <c r="AD9" t="n">
-        <v>1448762.827586851</v>
+        <v>1508149.068733361</v>
       </c>
       <c r="AE9" t="n">
-        <v>1982261.215609395</v>
+        <v>2063516.090682104</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405113729188215e-06</v>
+        <v>2.656737989432213e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1793076.987312723</v>
+        <v>1866577.011150426</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.638021764717</v>
+        <v>1117.435645182061</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.475245191817</v>
+        <v>1528.924747519499</v>
       </c>
       <c r="AC2" t="n">
-        <v>1310.234800738484</v>
+        <v>1383.006315475598</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058638.021764717</v>
+        <v>1117435.645182061</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448475.245191817</v>
+        <v>1528924.747519499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420437389970485e-06</v>
+        <v>3.256447528124067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.12604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1310234.800738484</v>
+        <v>1383006.315475598</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1069.532162564484</v>
+        <v>1128.329785981827</v>
       </c>
       <c r="AB3" t="n">
-        <v>1463.381089249629</v>
+        <v>1543.830591577311</v>
       </c>
       <c r="AC3" t="n">
-        <v>1323.718051959902</v>
+        <v>1396.489566697016</v>
       </c>
       <c r="AD3" t="n">
-        <v>1069532.162564483</v>
+        <v>1128329.785981827</v>
       </c>
       <c r="AE3" t="n">
-        <v>1463381.089249629</v>
+        <v>1543830.591577311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421153336235592e-06</v>
+        <v>3.258088882724936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.11875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1323718.051959902</v>
+        <v>1396489.566697016</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3836.040166692253</v>
+        <v>3949.82248115823</v>
       </c>
       <c r="AB2" t="n">
-        <v>5248.639390216848</v>
+        <v>5404.321372590647</v>
       </c>
       <c r="AC2" t="n">
-        <v>4747.716613326003</v>
+        <v>4888.540525803078</v>
       </c>
       <c r="AD2" t="n">
-        <v>3836040.166692253</v>
+        <v>3949822.48115823</v>
       </c>
       <c r="AE2" t="n">
-        <v>5248639.390216849</v>
+        <v>5404321.372590647</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.331134144065756e-07</v>
+        <v>1.632890778664335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.440625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4747716.613326004</v>
+        <v>4888540.525803078</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1896.123592416798</v>
+        <v>1964.495425925291</v>
       </c>
       <c r="AB3" t="n">
-        <v>2594.359950213764</v>
+        <v>2687.909309172495</v>
       </c>
       <c r="AC3" t="n">
-        <v>2346.757877772421</v>
+        <v>2431.37901720948</v>
       </c>
       <c r="AD3" t="n">
-        <v>1896123.592416798</v>
+        <v>1964495.425925291</v>
       </c>
       <c r="AE3" t="n">
-        <v>2594359.950213764</v>
+        <v>2687909.309172495</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.227590594762955e-06</v>
+        <v>2.406060600514171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2346757.877772421</v>
+        <v>2431379.017209481</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1493.992740077274</v>
+        <v>1562.364484077216</v>
       </c>
       <c r="AB4" t="n">
-        <v>2044.146777281702</v>
+        <v>2137.696013770885</v>
       </c>
       <c r="AC4" t="n">
-        <v>1849.056277835957</v>
+        <v>1933.67730649179</v>
       </c>
       <c r="AD4" t="n">
-        <v>1493992.740077274</v>
+        <v>1562364.484077216</v>
       </c>
       <c r="AE4" t="n">
-        <v>2044146.777281702</v>
+        <v>2137696.013770885</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370019091888081e-06</v>
+        <v>2.685218486526961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1849056.277835957</v>
+        <v>1933677.30649179</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1315.700133840723</v>
+        <v>1383.901285640073</v>
       </c>
       <c r="AB5" t="n">
-        <v>1800.1989677142</v>
+        <v>1893.514792428536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1628.390504830676</v>
+        <v>1712.800398203858</v>
       </c>
       <c r="AD5" t="n">
-        <v>1315700.133840723</v>
+        <v>1383901.285640073</v>
       </c>
       <c r="AE5" t="n">
-        <v>1800198.9677142</v>
+        <v>1893514.792428536</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435169245049028e-06</v>
+        <v>2.812911886351589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.28541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1628390.504830676</v>
+        <v>1712800.398203858</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1318.169099791921</v>
+        <v>1386.370251591271</v>
       </c>
       <c r="AB6" t="n">
-        <v>1803.57711585172</v>
+        <v>1896.892940566056</v>
       </c>
       <c r="AC6" t="n">
-        <v>1631.446247251212</v>
+        <v>1715.856140624394</v>
       </c>
       <c r="AD6" t="n">
-        <v>1318169.099791921</v>
+        <v>1386370.251591271</v>
       </c>
       <c r="AE6" t="n">
-        <v>1803577.11585172</v>
+        <v>1896892.940566055</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436413162054487e-06</v>
+        <v>2.815349946491439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1631446.247251212</v>
+        <v>1715856.140624394</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4894.088152987989</v>
+        <v>5022.192802914038</v>
       </c>
       <c r="AB2" t="n">
-        <v>6696.30732284956</v>
+        <v>6871.585756456678</v>
       </c>
       <c r="AC2" t="n">
-        <v>6057.221150282899</v>
+        <v>6215.771256191376</v>
       </c>
       <c r="AD2" t="n">
-        <v>4894088.152987989</v>
+        <v>5022192.802914038</v>
       </c>
       <c r="AE2" t="n">
-        <v>6696307.32284956</v>
+        <v>6871585.756456678</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349308769209912e-07</v>
+        <v>1.413053861552828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.59479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6057221.150282899</v>
+        <v>6215771.256191376</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2191.13967448124</v>
+        <v>2272.660815343274</v>
       </c>
       <c r="AB3" t="n">
-        <v>2998.013968885307</v>
+        <v>3109.554790271831</v>
       </c>
       <c r="AC3" t="n">
-        <v>2711.887723433926</v>
+        <v>2812.783245375729</v>
       </c>
       <c r="AD3" t="n">
-        <v>2191139.67448124</v>
+        <v>2272660.815343274</v>
       </c>
       <c r="AE3" t="n">
-        <v>2998013.968885307</v>
+        <v>3109554.790271831</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151452646718253e-06</v>
+        <v>2.213901551744667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2711887.723433926</v>
+        <v>2812783.245375729</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1729.870346066973</v>
+        <v>1799.660358316979</v>
       </c>
       <c r="AB4" t="n">
-        <v>2366.884923982353</v>
+        <v>2462.374697660853</v>
       </c>
       <c r="AC4" t="n">
-        <v>2140.992748781331</v>
+        <v>2227.369112480695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1729870.346066973</v>
+        <v>1799660.358316979</v>
       </c>
       <c r="AE4" t="n">
-        <v>2366884.923982352</v>
+        <v>2462374.697660853</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301820966685296e-06</v>
+        <v>2.503015183865861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.190625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2140992.748781331</v>
+        <v>2227369.112480694</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1494.553611665938</v>
+        <v>1564.258283061373</v>
       </c>
       <c r="AB5" t="n">
-        <v>2044.91418653322</v>
+        <v>2140.287193089523</v>
       </c>
       <c r="AC5" t="n">
-        <v>1849.750446625575</v>
+        <v>1936.021187293</v>
       </c>
       <c r="AD5" t="n">
-        <v>1494553.611665938</v>
+        <v>1564258.283061373</v>
       </c>
       <c r="AE5" t="n">
-        <v>2044914.18653322</v>
+        <v>2140287.193089523</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38195646445902e-06</v>
+        <v>2.657091952351928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1849750.446625575</v>
+        <v>1936021.187293</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1377.977526973923</v>
+        <v>1436.207002812497</v>
       </c>
       <c r="AB6" t="n">
-        <v>1885.409644483722</v>
+        <v>1965.081782229229</v>
       </c>
       <c r="AC6" t="n">
-        <v>1705.468794203251</v>
+        <v>1777.537134942874</v>
       </c>
       <c r="AD6" t="n">
-        <v>1377977.526973923</v>
+        <v>1436207.002812497</v>
       </c>
       <c r="AE6" t="n">
-        <v>1885409.644483722</v>
+        <v>1965081.782229229</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418977236244219e-06</v>
+        <v>2.728271904333134e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.184375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1705468.794203251</v>
+        <v>1777537.134942874</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1380.318752697597</v>
+        <v>1438.548228536171</v>
       </c>
       <c r="AB7" t="n">
-        <v>1888.613012806442</v>
+        <v>1968.285150551949</v>
       </c>
       <c r="AC7" t="n">
-        <v>1708.366437549206</v>
+        <v>1780.43477828883</v>
       </c>
       <c r="AD7" t="n">
-        <v>1380318.752697597</v>
+        <v>1438548.228536171</v>
       </c>
       <c r="AE7" t="n">
-        <v>1888613.012806442</v>
+        <v>1968285.150551949</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421110120215383e-06</v>
+        <v>2.732372806916413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1708366.437549206</v>
+        <v>1780434.77828883</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8127.28303364924</v>
+        <v>8296.41241759982</v>
       </c>
       <c r="AB2" t="n">
-        <v>11120.10719706175</v>
+        <v>11351.51748164477</v>
       </c>
       <c r="AC2" t="n">
-        <v>10058.81977334223</v>
+        <v>10268.14458515101</v>
       </c>
       <c r="AD2" t="n">
-        <v>8127283.03364924</v>
+        <v>8296412.417599821</v>
       </c>
       <c r="AE2" t="n">
-        <v>11120107.19706175</v>
+        <v>11351517.48164477</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.617334174941177e-07</v>
+        <v>1.04646675132045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10058819.77334223</v>
+        <v>10268144.58515101</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2874.167340255815</v>
+        <v>2958.817417839953</v>
       </c>
       <c r="AB3" t="n">
-        <v>3932.562554252237</v>
+        <v>4048.384524900717</v>
       </c>
       <c r="AC3" t="n">
-        <v>3557.244303460465</v>
+        <v>3662.012387787406</v>
       </c>
       <c r="AD3" t="n">
-        <v>2874167.340255815</v>
+        <v>2958817.417839953</v>
       </c>
       <c r="AE3" t="n">
-        <v>3932562.554252237</v>
+        <v>4048384.524900717</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.015531670474968e-06</v>
+        <v>1.891858477648961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.08229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3557244.303460465</v>
+        <v>3662012.387787406</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2185.589191223865</v>
+        <v>2270.153838444884</v>
       </c>
       <c r="AB4" t="n">
-        <v>2990.419552822528</v>
+        <v>3106.124633879437</v>
       </c>
       <c r="AC4" t="n">
-        <v>2705.018107781349</v>
+        <v>2809.68045829517</v>
       </c>
       <c r="AD4" t="n">
-        <v>2185589.191223865</v>
+        <v>2270153.838444883</v>
       </c>
       <c r="AE4" t="n">
-        <v>2990419.552822528</v>
+        <v>3106124.633879437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.181698885597573e-06</v>
+        <v>2.201415396233282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.9625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2705018.107781349</v>
+        <v>2809680.45829517</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1905.899783492223</v>
+        <v>1978.37166478242</v>
       </c>
       <c r="AB5" t="n">
-        <v>2607.736166138272</v>
+        <v>2706.895391353271</v>
       </c>
       <c r="AC5" t="n">
-        <v>2358.85748642273</v>
+        <v>2448.553094354057</v>
       </c>
       <c r="AD5" t="n">
-        <v>1905899.783492223</v>
+        <v>1978371.66478242</v>
       </c>
       <c r="AE5" t="n">
-        <v>2607736.166138271</v>
+        <v>2706895.391353271</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270517467840099e-06</v>
+        <v>2.366877678379239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2358857.48642273</v>
+        <v>2448553.094354057</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1721.551693816637</v>
+        <v>1794.108826452854</v>
       </c>
       <c r="AB6" t="n">
-        <v>2355.502976980406</v>
+        <v>2454.778846848056</v>
       </c>
       <c r="AC6" t="n">
-        <v>2130.697078826587</v>
+        <v>2220.498199008626</v>
       </c>
       <c r="AD6" t="n">
-        <v>1721551.693816636</v>
+        <v>1794108.826452854</v>
       </c>
       <c r="AE6" t="n">
-        <v>2355502.976980406</v>
+        <v>2454778.846848056</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.326102607058103e-06</v>
+        <v>2.47042857680833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2130697.078826587</v>
+        <v>2220498.199008626</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1585.015087168879</v>
+        <v>1645.479453874278</v>
       </c>
       <c r="AB7" t="n">
-        <v>2168.687568194982</v>
+        <v>2251.417582220905</v>
       </c>
       <c r="AC7" t="n">
-        <v>1961.711070458571</v>
+        <v>2036.545448058164</v>
       </c>
       <c r="AD7" t="n">
-        <v>1585015.087168879</v>
+        <v>1645479.453874278</v>
       </c>
       <c r="AE7" t="n">
-        <v>2168687.568194982</v>
+        <v>2251417.582220905</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36610037919381e-06</v>
+        <v>2.544941392609158e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.2125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1961711.070458571</v>
+        <v>2036545.448058164</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1503.545499506123</v>
+        <v>1564.009866211522</v>
       </c>
       <c r="AB8" t="n">
-        <v>2057.217284170256</v>
+        <v>2139.947298196179</v>
       </c>
       <c r="AC8" t="n">
-        <v>1860.879353891638</v>
+        <v>1935.713731491231</v>
       </c>
       <c r="AD8" t="n">
-        <v>1503545.499506123</v>
+        <v>1564009.866211521</v>
       </c>
       <c r="AE8" t="n">
-        <v>2057217.284170256</v>
+        <v>2139947.298196179</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387275670324478e-06</v>
+        <v>2.584389353915479e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1860879.353891638</v>
+        <v>1935713.731491231</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1507.065387433205</v>
+        <v>1567.529754138604</v>
       </c>
       <c r="AB9" t="n">
-        <v>2062.033350118586</v>
+        <v>2144.763364144509</v>
       </c>
       <c r="AC9" t="n">
-        <v>1865.235781265251</v>
+        <v>1940.070158864843</v>
       </c>
       <c r="AD9" t="n">
-        <v>1507065.387433205</v>
+        <v>1567529.754138604</v>
       </c>
       <c r="AE9" t="n">
-        <v>2062033.350118586</v>
+        <v>2144763.364144509</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388157974121589e-06</v>
+        <v>2.586033018969909e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.03541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1865235.781265251</v>
+        <v>1940070.158864843</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2983.351671129598</v>
+        <v>3083.436022531579</v>
       </c>
       <c r="AB2" t="n">
-        <v>4081.953372626475</v>
+        <v>4218.893197624634</v>
       </c>
       <c r="AC2" t="n">
-        <v>3692.377471800391</v>
+        <v>3816.247952096971</v>
       </c>
       <c r="AD2" t="n">
-        <v>2983351.671129598</v>
+        <v>3083436.022531579</v>
       </c>
       <c r="AE2" t="n">
-        <v>4081953.372626475</v>
+        <v>4218893.197624634</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.435407909577308e-07</v>
+        <v>1.891325019775751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3692377.471800391</v>
+        <v>3816247.952096971</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1597.54823599119</v>
+        <v>1675.306279560382</v>
       </c>
       <c r="AB3" t="n">
-        <v>2185.83597533717</v>
+        <v>2292.227960991312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1977.222857691049</v>
+        <v>2073.46094155645</v>
       </c>
       <c r="AD3" t="n">
-        <v>1597548.23599119</v>
+        <v>1675306.279560382</v>
       </c>
       <c r="AE3" t="n">
-        <v>2185835.97533717</v>
+        <v>2292227.960991312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313257330864284e-06</v>
+        <v>2.632420846105013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1977222.857691049</v>
+        <v>2073460.94155645</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1269.374754519863</v>
+        <v>1335.927063253925</v>
       </c>
       <c r="AB4" t="n">
-        <v>1736.814539995904</v>
+        <v>1827.874344886491</v>
       </c>
       <c r="AC4" t="n">
-        <v>1571.055397933211</v>
+        <v>1653.424582848279</v>
       </c>
       <c r="AD4" t="n">
-        <v>1269374.754519863</v>
+        <v>1335927.063253925</v>
       </c>
       <c r="AE4" t="n">
-        <v>1736814.539995904</v>
+        <v>1827874.344886491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443071744187755e-06</v>
+        <v>2.892633494248161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.48333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1571055.397933211</v>
+        <v>1653424.582848279</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1253.826761429981</v>
+        <v>1320.379070164043</v>
       </c>
       <c r="AB5" t="n">
-        <v>1715.541089921283</v>
+        <v>1806.60089481187</v>
       </c>
       <c r="AC5" t="n">
-        <v>1551.812256076237</v>
+        <v>1634.181440991305</v>
       </c>
       <c r="AD5" t="n">
-        <v>1253826.761429981</v>
+        <v>1320379.070164043</v>
       </c>
       <c r="AE5" t="n">
-        <v>1715541.089921283</v>
+        <v>1806600.89481187</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451821490183823e-06</v>
+        <v>2.910172336953888e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.41458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1551812.256076237</v>
+        <v>1634181.440991305</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1975.888813499653</v>
+        <v>2050.405646056308</v>
       </c>
       <c r="AB2" t="n">
-        <v>2703.498244692521</v>
+        <v>2805.455462447173</v>
       </c>
       <c r="AC2" t="n">
-        <v>2445.480166602684</v>
+        <v>2537.706730592686</v>
       </c>
       <c r="AD2" t="n">
-        <v>1975888.813499653</v>
+        <v>2050405.646056308</v>
       </c>
       <c r="AE2" t="n">
-        <v>2703498.244692522</v>
+        <v>2805455.462447173</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142109020334233e-06</v>
+        <v>2.389363495658262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2445480.166602684</v>
+        <v>2537706.730592686</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1169.911037991912</v>
+        <v>1233.782532033144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1600.72389501288</v>
+        <v>1688.11569097154</v>
       </c>
       <c r="AC3" t="n">
-        <v>1447.953053102947</v>
+        <v>1527.004298710468</v>
       </c>
       <c r="AD3" t="n">
-        <v>1169911.037991912</v>
+        <v>1233782.532033144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1600723.89501288</v>
+        <v>1688115.69097154</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458293583711731e-06</v>
+        <v>3.050841375767949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.83645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1447953.053102947</v>
+        <v>1527004.298710468</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1161.373656764163</v>
+        <v>1225.245150805395</v>
       </c>
       <c r="AB4" t="n">
-        <v>1589.042673374396</v>
+        <v>1676.434469333055</v>
       </c>
       <c r="AC4" t="n">
-        <v>1437.386670862942</v>
+        <v>1516.437916470464</v>
       </c>
       <c r="AD4" t="n">
-        <v>1161373.656764163</v>
+        <v>1225245.150805395</v>
       </c>
       <c r="AE4" t="n">
-        <v>1589042.673374396</v>
+        <v>1676434.469333055</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466745057890061e-06</v>
+        <v>3.068522388286604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.76875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1437386.670862942</v>
+        <v>1516437.916470464</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.04949151838</v>
+        <v>1473.907187938638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1918.345968353573</v>
+        <v>2016.664838733599</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.261721549384</v>
+        <v>1824.197176931742</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402049.49151838</v>
+        <v>1473907.187938638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1918345.968353573</v>
+        <v>2016664.838733599</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.311570563281269e-06</v>
+        <v>2.851165236563351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735261.721549384</v>
+        <v>1824197.176931742</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1109.120948668443</v>
+        <v>1170.628008539786</v>
       </c>
       <c r="AB3" t="n">
-        <v>1517.548212931045</v>
+        <v>1601.704885746989</v>
       </c>
       <c r="AC3" t="n">
-        <v>1372.715541381199</v>
+        <v>1448.840419458222</v>
       </c>
       <c r="AD3" t="n">
-        <v>1109120.948668443</v>
+        <v>1170628.008539786</v>
       </c>
       <c r="AE3" t="n">
-        <v>1517548.212931045</v>
+        <v>1601704.885746989</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461738621500377e-06</v>
+        <v>3.177608936371154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1372715.541381199</v>
+        <v>1448840.419458222</v>
       </c>
     </row>
     <row r="4">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1118.864609432074</v>
+        <v>1180.371669303417</v>
       </c>
       <c r="AB4" t="n">
-        <v>1530.87991944782</v>
+        <v>1615.036592263764</v>
       </c>
       <c r="AC4" t="n">
-        <v>1384.774888539181</v>
+        <v>1460.899766616204</v>
       </c>
       <c r="AD4" t="n">
-        <v>1118864.609432074</v>
+        <v>1180371.669303417</v>
       </c>
       <c r="AE4" t="n">
-        <v>1530879.91944782</v>
+        <v>1615036.592263764</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.461567196776382e-06</v>
+        <v>3.177236283745803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.21770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1384774.888539181</v>
+        <v>1460899.766616204</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1048.545477016095</v>
+        <v>1115.046867057359</v>
       </c>
       <c r="AB2" t="n">
-        <v>1434.666180215103</v>
+        <v>1525.656315903828</v>
       </c>
       <c r="AC2" t="n">
-        <v>1297.743653542003</v>
+        <v>1380.049818386054</v>
       </c>
       <c r="AD2" t="n">
-        <v>1048545.477016096</v>
+        <v>1115046.867057359</v>
       </c>
       <c r="AE2" t="n">
-        <v>1434666.180215103</v>
+        <v>1525656.315903828</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.36392544793876e-06</v>
+        <v>3.244133454157617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.05104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1297743.653542003</v>
+        <v>1380049.818386054</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4336.063612190003</v>
+        <v>4462.56349844753</v>
       </c>
       <c r="AB2" t="n">
-        <v>5932.793527824446</v>
+        <v>6105.876252983112</v>
       </c>
       <c r="AC2" t="n">
-        <v>5366.576040256669</v>
+        <v>5523.139993049317</v>
       </c>
       <c r="AD2" t="n">
-        <v>4336063.612190004</v>
+        <v>4462563.49844753</v>
       </c>
       <c r="AE2" t="n">
-        <v>5932793.527824446</v>
+        <v>6105876.252983112</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.825814716009663e-07</v>
+        <v>1.518660539590745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.48125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5366576.04025667</v>
+        <v>5523139.993049317</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2044.817107315329</v>
+        <v>2125.309309222812</v>
       </c>
       <c r="AB3" t="n">
-        <v>2797.808977192837</v>
+        <v>2907.941958907982</v>
       </c>
       <c r="AC3" t="n">
-        <v>2530.790015159115</v>
+        <v>2630.412059671977</v>
       </c>
       <c r="AD3" t="n">
-        <v>2044817.107315329</v>
+        <v>2125309.309222812</v>
       </c>
       <c r="AE3" t="n">
-        <v>2797808.977192837</v>
+        <v>2907941.958907982</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>2.304565875847694e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2530790.015159115</v>
+        <v>2630412.059671977</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1619.924963144196</v>
+        <v>1688.979249605096</v>
       </c>
       <c r="AB4" t="n">
-        <v>2216.452800619442</v>
+        <v>2310.935921815357</v>
       </c>
       <c r="AC4" t="n">
-        <v>2004.917656139365</v>
+        <v>2090.383440856235</v>
       </c>
       <c r="AD4" t="n">
-        <v>1619924.963144195</v>
+        <v>1688979.249605096</v>
       </c>
       <c r="AE4" t="n">
-        <v>2216452.800619442</v>
+        <v>2310935.921815357</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.334512210616433e-06</v>
+        <v>2.589725296867977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2004917.656139365</v>
+        <v>2090383.440856235</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1386.501626258855</v>
+        <v>1455.470571865184</v>
       </c>
       <c r="AB5" t="n">
-        <v>1897.072693182086</v>
+        <v>1991.439047255803</v>
       </c>
       <c r="AC5" t="n">
-        <v>1716.018737903034</v>
+        <v>1801.378899587966</v>
       </c>
       <c r="AD5" t="n">
-        <v>1386501.626258855</v>
+        <v>1455470.571865184</v>
       </c>
       <c r="AE5" t="n">
-        <v>1897072.693182086</v>
+        <v>1991439.047255803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414524472754165e-06</v>
+        <v>2.744995348104153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.33125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1716018.737903035</v>
+        <v>1801378.899587966</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1345.045747735596</v>
+        <v>1402.662118749915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1840.35093128228</v>
+        <v>1919.184191958965</v>
       </c>
       <c r="AC6" t="n">
-        <v>1664.710421349453</v>
+        <v>1736.019946270332</v>
       </c>
       <c r="AD6" t="n">
-        <v>1345045.747735596</v>
+        <v>1402662.118749915</v>
       </c>
       <c r="AE6" t="n">
-        <v>1840350.93128228</v>
+        <v>1919184.191958965</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428526618628268e-06</v>
+        <v>2.772167607070484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.21979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1664710.421349453</v>
+        <v>1736019.946270332</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7128.506625743668</v>
+        <v>7284.335424897286</v>
       </c>
       <c r="AB2" t="n">
-        <v>9753.537252859958</v>
+        <v>9966.749090543379</v>
       </c>
       <c r="AC2" t="n">
-        <v>8822.673346622147</v>
+        <v>9015.536545761746</v>
       </c>
       <c r="AD2" t="n">
-        <v>7128506.625743669</v>
+        <v>7284335.424897286</v>
       </c>
       <c r="AE2" t="n">
-        <v>9753537.252859958</v>
+        <v>9966749.090543378</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.024363393909077e-07</v>
+        <v>1.130406865847474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.63958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>8822673.346622147</v>
+        <v>9015536.545761745</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2691.237899858176</v>
+        <v>2787.0472046366</v>
       </c>
       <c r="AB3" t="n">
-        <v>3682.270423622833</v>
+        <v>3813.360941228895</v>
       </c>
       <c r="AC3" t="n">
-        <v>3330.839702491129</v>
+        <v>3449.41912508356</v>
       </c>
       <c r="AD3" t="n">
-        <v>2691237.899858176</v>
+        <v>2787047.2046366</v>
       </c>
       <c r="AE3" t="n">
-        <v>3682270.423622833</v>
+        <v>3813360.941228895</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046812836844649e-06</v>
+        <v>1.964231472528468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.75416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3330839.702491129</v>
+        <v>3449419.12508356</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2067.748270000853</v>
+        <v>2151.570744075153</v>
       </c>
       <c r="AB4" t="n">
-        <v>2829.18440563067</v>
+        <v>2943.874012645692</v>
       </c>
       <c r="AC4" t="n">
-        <v>2559.171016742531</v>
+        <v>2662.914808631913</v>
       </c>
       <c r="AD4" t="n">
-        <v>2067748.270000853</v>
+        <v>2151570.744075153</v>
       </c>
       <c r="AE4" t="n">
-        <v>2829184.40563067</v>
+        <v>2943874.012645692</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210655355925858e-06</v>
+        <v>2.271664302152258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.75833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2559171.016742531</v>
+        <v>2662914.808631913</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1797.009541290259</v>
+        <v>1880.746674509987</v>
       </c>
       <c r="AB5" t="n">
-        <v>2458.747732859101</v>
+        <v>2573.320572751925</v>
       </c>
       <c r="AC5" t="n">
-        <v>2224.088300109144</v>
+        <v>2327.726468966588</v>
       </c>
       <c r="AD5" t="n">
-        <v>1797009.541290259</v>
+        <v>1880746.674509987</v>
       </c>
       <c r="AE5" t="n">
-        <v>2458747.732859101</v>
+        <v>2573320.572751925</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295764501584332e-06</v>
+        <v>2.431362441703439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.91979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2224088.300109144</v>
+        <v>2327726.468966588</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1625.739487872665</v>
+        <v>1697.489879896819</v>
       </c>
       <c r="AB6" t="n">
-        <v>2224.40848987166</v>
+        <v>2322.580541643001</v>
       </c>
       <c r="AC6" t="n">
-        <v>2012.114065575232</v>
+        <v>2100.916714510856</v>
       </c>
       <c r="AD6" t="n">
-        <v>1625739.487872665</v>
+        <v>1697489.879896819</v>
       </c>
       <c r="AE6" t="n">
-        <v>2224408.48987166</v>
+        <v>2322580.541643001</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351367166430896e-06</v>
+        <v>2.535694849946807e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.42916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2012114.065575232</v>
+        <v>2100916.714510856</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1497.546789451299</v>
+        <v>1557.481032480472</v>
       </c>
       <c r="AB7" t="n">
-        <v>2049.009584428835</v>
+        <v>2131.01425985354</v>
       </c>
       <c r="AC7" t="n">
-        <v>1853.45498549396</v>
+        <v>1927.633249790416</v>
       </c>
       <c r="AD7" t="n">
-        <v>1497546.789451299</v>
+        <v>1557481.032480472</v>
       </c>
       <c r="AE7" t="n">
-        <v>2049009.584428835</v>
+        <v>2131014.25985354</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.388583883434863e-06</v>
+        <v>2.605528008531034e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.12291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1853454.98549396</v>
+        <v>1927633.249790416</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1473.019908782356</v>
+        <v>1532.95415181153</v>
       </c>
       <c r="AB8" t="n">
-        <v>2015.450824247981</v>
+        <v>2097.455499672686</v>
       </c>
       <c r="AC8" t="n">
-        <v>1823.099026284751</v>
+        <v>1897.277290581207</v>
       </c>
       <c r="AD8" t="n">
-        <v>1473019.908782356</v>
+        <v>1532954.15181153</v>
       </c>
       <c r="AE8" t="n">
-        <v>2015450.824247981</v>
+        <v>2097455.499672686</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.619717216052132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1823099.026284751</v>
+        <v>1897277.290581207</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1480.45463212617</v>
+        <v>1540.388875155344</v>
       </c>
       <c r="AB9" t="n">
-        <v>2025.623340723832</v>
+        <v>2107.628016148537</v>
       </c>
       <c r="AC9" t="n">
-        <v>1832.300692065364</v>
+        <v>1906.47895636182</v>
       </c>
       <c r="AD9" t="n">
-        <v>1480454.63212617</v>
+        <v>1540388.875155344</v>
       </c>
       <c r="AE9" t="n">
-        <v>2025623.340723832</v>
+        <v>2107628.016148537</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.619717216052132e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.06354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1832300.692065364</v>
+        <v>1906478.95636182</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1064.986418287042</v>
+        <v>1138.182710646888</v>
       </c>
       <c r="AB2" t="n">
-        <v>1457.161401385149</v>
+        <v>1557.311797784405</v>
       </c>
       <c r="AC2" t="n">
-        <v>1318.091962375822</v>
+        <v>1408.684145504697</v>
       </c>
       <c r="AD2" t="n">
-        <v>1064986.418287042</v>
+        <v>1138182.710646888</v>
       </c>
       <c r="AE2" t="n">
-        <v>1457161.401385149</v>
+        <v>1557311.797784405</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235542381814916e-06</v>
+        <v>3.089997732186396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1318091.962375822</v>
+        <v>1408684.145504697</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2280.647055571194</v>
+        <v>2377.801896631138</v>
       </c>
       <c r="AB2" t="n">
-        <v>3120.481916479725</v>
+        <v>3253.413456187031</v>
       </c>
       <c r="AC2" t="n">
-        <v>2822.667501994658</v>
+        <v>2942.912242122883</v>
       </c>
       <c r="AD2" t="n">
-        <v>2280647.055571194</v>
+        <v>2377801.896631138</v>
       </c>
       <c r="AE2" t="n">
-        <v>3120481.916479725</v>
+        <v>3253413.456187031</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.069613327527936e-06</v>
+        <v>2.202637031962076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2822667.501994658</v>
+        <v>2942912.242122883</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1306.332811464922</v>
+        <v>1371.131241964959</v>
       </c>
       <c r="AB3" t="n">
-        <v>1787.382183982533</v>
+        <v>1876.04225529768</v>
       </c>
       <c r="AC3" t="n">
-        <v>1616.79693694989</v>
+        <v>1696.995415493911</v>
       </c>
       <c r="AD3" t="n">
-        <v>1306332.811464922</v>
+        <v>1371131.241964959</v>
       </c>
       <c r="AE3" t="n">
-        <v>1787382.183982533</v>
+        <v>1876042.255297679</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413359290038822e-06</v>
+        <v>2.910507406355995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1616796.93694989</v>
+        <v>1696995.415493911</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1190.951805439249</v>
+        <v>1255.835487285307</v>
       </c>
       <c r="AB4" t="n">
-        <v>1629.512801287474</v>
+        <v>1718.28951725527</v>
       </c>
       <c r="AC4" t="n">
-        <v>1473.994386568177</v>
+        <v>1554.298377362911</v>
       </c>
       <c r="AD4" t="n">
-        <v>1190951.805439249</v>
+        <v>1255835.487285307</v>
       </c>
       <c r="AE4" t="n">
-        <v>1629512.801287474</v>
+        <v>1718289.51725527</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462512513181709e-06</v>
+        <v>3.011727825687382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1473994.386568177</v>
+        <v>1554298.37736291</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1197.058181765774</v>
+        <v>1261.941863611832</v>
       </c>
       <c r="AB5" t="n">
-        <v>1637.867814771736</v>
+        <v>1726.644530739532</v>
       </c>
       <c r="AC5" t="n">
-        <v>1481.552009291837</v>
+        <v>1561.85600008657</v>
       </c>
       <c r="AD5" t="n">
-        <v>1197058.181765774</v>
+        <v>1261941.863611832</v>
       </c>
       <c r="AE5" t="n">
-        <v>1637867.814771736</v>
+        <v>1726644.530739532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463818911138995e-06</v>
+        <v>3.014418069390541e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1481552.009291837</v>
+        <v>1561856.000086569</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3387.69319820023</v>
+        <v>3488.959712813171</v>
       </c>
       <c r="AB2" t="n">
-        <v>4635.191288253756</v>
+        <v>4773.74860111051</v>
       </c>
       <c r="AC2" t="n">
-        <v>4192.815137234474</v>
+        <v>4318.148734618585</v>
       </c>
       <c r="AD2" t="n">
-        <v>3387693.19820023</v>
+        <v>3488959.712813171</v>
       </c>
       <c r="AE2" t="n">
-        <v>4635191.288253756</v>
+        <v>4773748.601110511</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.865785330876953e-07</v>
+        <v>1.756475303601068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.47083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4192815.137234474</v>
+        <v>4318148.734618585</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1741.061991109824</v>
+        <v>1819.805801556667</v>
       </c>
       <c r="AB3" t="n">
-        <v>2382.197826470514</v>
+        <v>2489.938581855624</v>
       </c>
       <c r="AC3" t="n">
-        <v>2154.844209347816</v>
+        <v>2252.302338254071</v>
       </c>
       <c r="AD3" t="n">
-        <v>1741061.991109824</v>
+        <v>1819805.801556667</v>
       </c>
       <c r="AE3" t="n">
-        <v>2382197.826470514</v>
+        <v>2489938.581855624</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269101244739116e-06</v>
+        <v>2.514323222320947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2154844.209347816</v>
+        <v>2252302.338254071</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1378.393262980649</v>
+        <v>1445.96110695329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1885.978472829102</v>
+        <v>1978.427777835366</v>
       </c>
       <c r="AC4" t="n">
-        <v>1705.983334369704</v>
+        <v>1789.609407459584</v>
       </c>
       <c r="AD4" t="n">
-        <v>1378393.262980649</v>
+        <v>1445961.10695329</v>
       </c>
       <c r="AE4" t="n">
-        <v>1885978.472829103</v>
+        <v>1978427.777835366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407614400910469e-06</v>
+        <v>2.788743286600525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.634375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1705983.334369704</v>
+        <v>1789609.407459584</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1281.950450065069</v>
+        <v>1349.347701837119</v>
       </c>
       <c r="AB5" t="n">
-        <v>1754.021161441387</v>
+        <v>1846.237054672804</v>
       </c>
       <c r="AC5" t="n">
-        <v>1586.619843577582</v>
+        <v>1670.034781384811</v>
       </c>
       <c r="AD5" t="n">
-        <v>1281950.450065069</v>
+        <v>1349347.701837119</v>
       </c>
       <c r="AE5" t="n">
-        <v>1754021.161441387</v>
+        <v>1846237.054672804</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.861631249190106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1586619.843577582</v>
+        <v>1670034.781384811</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1289.398595458846</v>
+        <v>1356.795847230894</v>
       </c>
       <c r="AB6" t="n">
-        <v>1764.212042558135</v>
+        <v>1856.427935789552</v>
       </c>
       <c r="AC6" t="n">
-        <v>1595.83812130354</v>
+        <v>1679.253059110769</v>
       </c>
       <c r="AD6" t="n">
-        <v>1289398.595458846</v>
+        <v>1356795.847230894</v>
       </c>
       <c r="AE6" t="n">
-        <v>1764212.042558135</v>
+        <v>1856427.935789552</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.861631249190106e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1595838.121303539</v>
+        <v>1679253.059110769</v>
       </c>
     </row>
   </sheetData>
